--- a/Saved_file/EM002/2026_12/work_logs_EM002_2026_12.xlsx
+++ b/Saved_file/EM002/2026_12/work_logs_EM002_2026_12.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-12-23 19:09:26</t>
+          <t>2026-12-24 13:40:38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.294</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20261223_000</t>
+          <t>SESS_20261224_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>19:09:26</t>
+          <t>13:40:38</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-12-11 08:17:29</t>
+          <t>2026-12-17 09:06:12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.764</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20261211_001</t>
+          <t>SESS_20261217_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>08:17:29</t>
+          <t>09:06:12</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-12-14 15:00:56</t>
+          <t>2026-12-08 14:20:11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.391</t>
+          <t>Mouse anomaly detected - Score: 0.922</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20261214_002</t>
+          <t>SESS_20261208_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15:00:56</t>
+          <t>14:20:11</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-12-20 13:07:45</t>
+          <t>2026-12-20 08:15:11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.304</t>
+          <t>Face verification failed - Similarity: 0.494</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13:07:45</t>
+          <t>08:15:11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-12-15 15:49:46</t>
+          <t>2026-12-10 15:25:04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.751</t>
+          <t>Mouse anomaly detected - Score: 0.882</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20261215_004</t>
+          <t>SESS_20261210_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15:49:46</t>
+          <t>15:25:04</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-12-22 13:41:10</t>
+          <t>2026-12-02 19:15:12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.784</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20261222_005</t>
+          <t>SESS_20261202_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -761,34 +761,34 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-12-22</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:41:10</t>
+          <t>19:15:12</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-12-12 08:36:03</t>
+          <t>2026-12-11 17:57:08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.840</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20261212_006</t>
+          <t>SESS_20261211_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -811,34 +811,34 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08:36:03</t>
+          <t>17:57:08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-12-27 20:03:43</t>
+          <t>2026-12-19 11:07:01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.700</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20261227_007</t>
+          <t>SESS_20261219_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-12-27</t>
+          <t>2026-12-19</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>20:03:43</t>
+          <t>11:07:01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-12-02 16:31:42</t>
+          <t>2026-12-05 20:27:48</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.933</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20261202_008</t>
+          <t>SESS_20261205_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -911,34 +911,34 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16:31:42</t>
+          <t>20:27:48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-12-15 10:24:56</t>
+          <t>2026-12-24 20:22:24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.494</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20261215_009</t>
+          <t>SESS_20261224_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -961,29 +961,29 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10:24:56</t>
+          <t>20:22:24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-12-12 20:24:39</t>
+          <t>2026-12-05 17:10:48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20261212_010</t>
+          <t>SESS_20261205_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-12-12</t>
+          <t>2026-12-05</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20:24:39</t>
+          <t>17:10:48</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1028,17 +1028,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-12-23 13:03:41</t>
+          <t>2026-12-15 15:22:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.359</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20261223_011</t>
+          <t>SESS_20261215_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1061,34 +1061,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>13:03:41</t>
+          <t>15:22:24</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-12-19 13:56:36</t>
+          <t>2026-12-18 18:27:44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.495</t>
+          <t>Face verification failed - Similarity: 0.211</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20261219_012</t>
+          <t>SESS_20261218_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13:56:36</t>
+          <t>18:27:44</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1128,17 +1128,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-12-09 18:19:13</t>
+          <t>2026-12-17 13:13:21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.848</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20261209_013</t>
+          <t>SESS_20261217_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,34 +1161,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18:19:13</t>
+          <t>13:13:21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-12-05 20:40:26</t>
+          <t>2026-12-03 19:36:01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.857</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20261205_014</t>
+          <t>SESS_20261203_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1211,34 +1211,34 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-12-05</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20:40:26</t>
+          <t>19:36:01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-12-21 19:33:47</t>
+          <t>2026-12-07 14:05:53</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.835</t>
+          <t>Face verification failed - Similarity: 0.295</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20261221_015</t>
+          <t>SESS_20261207_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1261,34 +1261,34 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-12-21</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>19:33:47</t>
+          <t>14:05:53</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-12-16 18:09:10</t>
+          <t>2026-12-13 19:14:03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.778</t>
+          <t>Face verification failed - Similarity: 0.479</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20261216_016</t>
+          <t>SESS_20261213_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1311,34 +1311,34 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-13</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18:09:10</t>
+          <t>19:14:03</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-12-02 16:53:22</t>
+          <t>2026-12-15 16:41:20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.309</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20261202_017</t>
+          <t>SESS_20261215_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1361,34 +1361,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16:53:22</t>
+          <t>16:41:20</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-12-23 16:07:18</t>
+          <t>2026-12-09 11:20:16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.246</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SESS_20261223_018</t>
+          <t>SESS_20261209_018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1411,24 +1411,24 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-12-23</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16:07:18</t>
+          <t>11:20:16</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-12-26 19:06:54</t>
+          <t>2026-12-07 13:38:28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20261226_019</t>
+          <t>SESS_20261207_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-12-26</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>19:06:54</t>
+          <t>13:38:28</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-12-19 16:42:31</t>
+          <t>2026-12-27 09:52:20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.753</t>
+          <t>Mouse anomaly detected - Score: 0.784</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20261219_020</t>
+          <t>SESS_20261227_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-27</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:42:31</t>
+          <t>09:52:20</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1528,17 +1528,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-12-14 10:19:52</t>
+          <t>2026-12-04 10:00:43</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.888</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20261214_021</t>
+          <t>SESS_20261204_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10:19:52</t>
+          <t>10:00:43</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-12-04 13:22:17</t>
+          <t>2026-12-04 17:01:23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.449</t>
+          <t>Mouse anomaly detected - Score: 0.787</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1616,19 +1616,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13:22:17</t>
+          <t>17:01:23</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-12-13 15:47:43</t>
+          <t>2026-12-09 18:56:53</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.939</t>
+          <t>Mouse anomaly detected - Score: 0.788</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20261213_023</t>
+          <t>SESS_20261209_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15:47:43</t>
+          <t>18:56:53</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-12-16 16:40:25</t>
+          <t>2026-12-09 12:23:18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SESS_20261216_024</t>
+          <t>SESS_20261209_024</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>16:40:25</t>
+          <t>12:23:18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1728,17 +1728,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-12-25 18:05:58</t>
+          <t>2026-12-01 09:23:47</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.907</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20261225_025</t>
+          <t>SESS_20261201_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1761,34 +1761,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-12-25</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>18:05:58</t>
+          <t>09:23:47</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-12-06 08:24:44</t>
+          <t>2026-12-16 10:39:06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.941</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SESS_20261206_026</t>
+          <t>SESS_20261216_026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1811,34 +1811,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-12-06</t>
+          <t>2026-12-16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>08:24:44</t>
+          <t>10:39:06</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-12-18 17:36:45</t>
+          <t>2026-12-25 11:30:31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.460</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20261218_027</t>
+          <t>SESS_20261225_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1861,34 +1861,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-25</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>17:36:45</t>
+          <t>11:30:31</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-12-15 17:59:54</t>
+          <t>2026-12-02 19:54:08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.707</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20261215_028</t>
+          <t>SESS_20261202_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1911,34 +1911,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>17:59:54</t>
+          <t>19:54:08</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-12-20 09:28:19</t>
+          <t>2026-12-15 19:32:21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.935</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20261220_029</t>
+          <t>SESS_20261215_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1961,34 +1961,34 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-12-20</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>09:28:19</t>
+          <t>19:32:21</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-12-19 10:04:23</t>
+          <t>2026-12-24 09:49:03</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.715</t>
+          <t>Face verification failed - Similarity: 0.390</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1998,12 +1998,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20261219_030</t>
+          <t>SESS_20261224_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -2011,415 +2011,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-12-19</t>
+          <t>2026-12-24</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10:04:23</t>
+          <t>09:49:03</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2026-12-20 14:23:58</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>INACTIVITY_ALERT</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SESS_20261220_031</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2026-12-20</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>14:23:58</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2026-12-13 15:36:03</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>FACE_MISMATCH</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.261</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SESS_20261213_032</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2026-12-13</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>15:36:03</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2026-12-25 19:10:06</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TAB_SWITCH</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SESS_20261225_033</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2026-12-25</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>19:10:06</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2026-12-05 18:17:52</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>RAPID_PAUSE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SESS_20261205_034</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2026-12-05</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>18:17:52</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2026-12-04 15:11:25</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>INACTIVITY_ALERT</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Browser suspicious activity detected</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SESS_20261204_035</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2026-12-04</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>15:11:25</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2026-12-21 09:32:53</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>LIVENESS_CHECK</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.276</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>SESS_20261221_036</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2026-12-21</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>09:32:53</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2026-12-22 14:18:21</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.470</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>SESS_20261222_037</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2026-12-22</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>14:18:21</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2026-12-05 10:18:02</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.376</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>SESS_20261205_038</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2026-12-05</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>10:18:02</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
         <is>
           <t>Face</t>
         </is>
@@ -2436,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2579,7 +2179,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-12-01 10:09:59</t>
+          <t>2026-12-01 13:55:25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2589,7 +2189,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.592</t>
+          <t>Mouse session - Score: 0.548</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2617,7 +2217,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10:09:59</t>
+          <t>13:55:25</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2626,58 +2226,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>27437</v>
+        <v>18723</v>
       </c>
       <c r="L2" t="n">
-        <v>27437</v>
+        <v>18723</v>
       </c>
       <c r="M2" t="n">
-        <v>23822.81</v>
+        <v>16355.85</v>
       </c>
       <c r="N2" t="n">
-        <v>14293.69</v>
+        <v>9813.51</v>
       </c>
       <c r="O2" t="n">
-        <v>9529.120000000001</v>
+        <v>6542.34</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R2" t="n">
-        <v>50.97</v>
+        <v>150.81</v>
       </c>
       <c r="S2" t="n">
-        <v>467.41</v>
+        <v>108.45</v>
       </c>
       <c r="T2" t="n">
-        <v>31.55</v>
+        <v>36.13</v>
       </c>
       <c r="U2" t="n">
-        <v>280.44</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>186.96</v>
+        <v>43.38</v>
       </c>
       <c r="W2" t="n">
-        <v>23.27</v>
+        <v>10.89</v>
       </c>
       <c r="X2" t="n">
-        <v>9.98</v>
+        <v>20.84</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.97</v>
+        <v>150.81</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.592</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-12-01 14:00:17</t>
+          <t>2026-12-01 14:05:53</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2687,7 +2287,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.539</t>
+          <t>Mouse session - Score: 0.601</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2715,7 +2315,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14:00:17</t>
+          <t>14:05:53</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2724,58 +2324,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>10742</v>
+        <v>9464</v>
       </c>
       <c r="L3" t="n">
-        <v>10742</v>
+        <v>9464</v>
       </c>
       <c r="M3" t="n">
-        <v>26157.71</v>
+        <v>34673.54</v>
       </c>
       <c r="N3" t="n">
-        <v>15694.62</v>
+        <v>20804.12</v>
       </c>
       <c r="O3" t="n">
-        <v>10463.08</v>
+        <v>13869.42</v>
       </c>
       <c r="P3" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="R3" t="n">
-        <v>161.32</v>
+        <v>91.94</v>
       </c>
       <c r="S3" t="n">
-        <v>162.15</v>
+        <v>377.14</v>
       </c>
       <c r="T3" t="n">
-        <v>11.97</v>
+        <v>48.87</v>
       </c>
       <c r="U3" t="n">
-        <v>97.29000000000001</v>
+        <v>226.28</v>
       </c>
       <c r="V3" t="n">
-        <v>64.86</v>
+        <v>150.86</v>
       </c>
       <c r="W3" t="n">
-        <v>26.92</v>
+        <v>12.73</v>
       </c>
       <c r="X3" t="n">
-        <v>12.11</v>
+        <v>2.52</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.32</v>
+        <v>91.94</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.539</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-12-01 11:23:15</t>
+          <t>2026-12-01 09:12:06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2785,7 +2385,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.599</t>
+          <t>Mouse session - Score: 0.632</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2813,7 +2413,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11:23:15</t>
+          <t>09:12:06</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -2822,58 +2422,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>28008</v>
+        <v>15935</v>
       </c>
       <c r="L4" t="n">
-        <v>28008</v>
+        <v>15935</v>
       </c>
       <c r="M4" t="n">
-        <v>14609.04</v>
+        <v>11164.03</v>
       </c>
       <c r="N4" t="n">
-        <v>8765.42</v>
+        <v>6698.42</v>
       </c>
       <c r="O4" t="n">
-        <v>5843.62</v>
+        <v>4465.61</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R4" t="n">
-        <v>87.92</v>
+        <v>55.74</v>
       </c>
       <c r="S4" t="n">
-        <v>166.17</v>
+        <v>200.29</v>
       </c>
       <c r="T4" t="n">
-        <v>34.78</v>
+        <v>49.63</v>
       </c>
       <c r="U4" t="n">
-        <v>99.7</v>
+        <v>120.18</v>
       </c>
       <c r="V4" t="n">
-        <v>66.47</v>
+        <v>80.12</v>
       </c>
       <c r="W4" t="n">
-        <v>11.5</v>
+        <v>18.98</v>
       </c>
       <c r="X4" t="n">
-        <v>9.359999999999999</v>
+        <v>15.67</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.92</v>
+        <v>55.74</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.599</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-12-02 09:34:22</t>
+          <t>2026-12-01 16:35:31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2883,7 +2483,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.639</t>
+          <t>Mouse session - Score: 0.642</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2893,7 +2493,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20261202_000</t>
+          <t>MOUSE_20261201_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2906,12 +2506,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-12-02</t>
+          <t>2026-12-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>09:34:22</t>
+          <t>16:35:31</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -2920,58 +2520,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>15959</v>
+        <v>24809</v>
       </c>
       <c r="L5" t="n">
-        <v>15959</v>
+        <v>24809</v>
       </c>
       <c r="M5" t="n">
-        <v>31515.94</v>
+        <v>34993.6</v>
       </c>
       <c r="N5" t="n">
-        <v>18909.57</v>
+        <v>20996.16</v>
       </c>
       <c r="O5" t="n">
-        <v>12606.38</v>
+        <v>13997.44</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>58.74</v>
+        <v>133.24</v>
       </c>
       <c r="S5" t="n">
-        <v>536.5700000000001</v>
+        <v>262.64</v>
       </c>
       <c r="T5" t="n">
-        <v>30.52</v>
+        <v>31.05</v>
       </c>
       <c r="U5" t="n">
-        <v>321.94</v>
+        <v>157.59</v>
       </c>
       <c r="V5" t="n">
-        <v>214.63</v>
+        <v>105.06</v>
       </c>
       <c r="W5" t="n">
-        <v>12.8</v>
+        <v>14.23</v>
       </c>
       <c r="X5" t="n">
-        <v>4.79</v>
+        <v>14.26</v>
       </c>
       <c r="Y5" t="n">
-        <v>58.74</v>
+        <v>133.24</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.639</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-12-02 12:28:11</t>
+          <t>2026-12-02 12:42:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2981,7 +2581,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.546</t>
+          <t>Mouse session - Score: 0.646</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2991,7 +2591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20261202_001</t>
+          <t>MOUSE_20261202_000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3009,7 +2609,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12:28:11</t>
+          <t>12:42:30</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3018,58 +2618,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>12424</v>
+        <v>14259</v>
       </c>
       <c r="L6" t="n">
-        <v>12424</v>
+        <v>14259</v>
       </c>
       <c r="M6" t="n">
-        <v>24689.34</v>
+        <v>13810.59</v>
       </c>
       <c r="N6" t="n">
-        <v>14813.61</v>
+        <v>8286.35</v>
       </c>
       <c r="O6" t="n">
-        <v>9875.74</v>
+        <v>5524.24</v>
       </c>
       <c r="P6" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>177.82</v>
+        <v>58.78</v>
       </c>
       <c r="S6" t="n">
-        <v>138.85</v>
+        <v>234.94</v>
       </c>
       <c r="T6" t="n">
-        <v>19.87</v>
+        <v>48.26</v>
       </c>
       <c r="U6" t="n">
-        <v>83.31</v>
+        <v>140.97</v>
       </c>
       <c r="V6" t="n">
-        <v>55.54</v>
+        <v>93.98</v>
       </c>
       <c r="W6" t="n">
-        <v>25.82</v>
+        <v>17.29</v>
       </c>
       <c r="X6" t="n">
-        <v>10.95</v>
+        <v>29.28</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.82</v>
+        <v>58.78</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.546</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-12-02 11:32:02</t>
+          <t>2026-12-02 12:56:47</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3079,7 +2679,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.613</t>
+          <t>Mouse session - Score: 0.593</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3089,7 +2689,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20261202_002</t>
+          <t>MOUSE_20261202_001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3107,7 +2707,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11:32:02</t>
+          <t>12:56:47</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3116,58 +2716,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>12621</v>
+        <v>28458</v>
       </c>
       <c r="L7" t="n">
-        <v>12621</v>
+        <v>28458</v>
       </c>
       <c r="M7" t="n">
-        <v>29610.64</v>
+        <v>13531.25</v>
       </c>
       <c r="N7" t="n">
-        <v>17766.38</v>
+        <v>8118.75</v>
       </c>
       <c r="O7" t="n">
-        <v>11844.25</v>
+        <v>5412.5</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="R7" t="n">
-        <v>132.13</v>
+        <v>170.63</v>
       </c>
       <c r="S7" t="n">
-        <v>224.1</v>
+        <v>79.3</v>
       </c>
       <c r="T7" t="n">
-        <v>42.27</v>
+        <v>47.4</v>
       </c>
       <c r="U7" t="n">
-        <v>134.46</v>
+        <v>47.58</v>
       </c>
       <c r="V7" t="n">
-        <v>89.64</v>
+        <v>31.72</v>
       </c>
       <c r="W7" t="n">
-        <v>6.57</v>
+        <v>10.36</v>
       </c>
       <c r="X7" t="n">
-        <v>26.54</v>
+        <v>17.88</v>
       </c>
       <c r="Y7" t="n">
-        <v>132.13</v>
+        <v>170.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.613</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-12-03 09:41:56</t>
+          <t>2026-12-02 12:43:06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3177,7 +2777,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.581</t>
+          <t>Mouse session - Score: 0.630</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3187,7 +2787,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20261203_000</t>
+          <t>MOUSE_20261202_002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3200,12 +2800,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>09:41:56</t>
+          <t>12:43:06</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3214,58 +2814,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>16159</v>
+        <v>8102</v>
       </c>
       <c r="L8" t="n">
-        <v>16159</v>
+        <v>8102</v>
       </c>
       <c r="M8" t="n">
-        <v>17549.99</v>
+        <v>18545.35</v>
       </c>
       <c r="N8" t="n">
-        <v>10530</v>
+        <v>11127.21</v>
       </c>
       <c r="O8" t="n">
-        <v>7020</v>
+        <v>7418.14</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R8" t="n">
-        <v>121.05</v>
+        <v>120.38</v>
       </c>
       <c r="S8" t="n">
-        <v>144.98</v>
+        <v>154.05</v>
       </c>
       <c r="T8" t="n">
-        <v>28.86</v>
+        <v>39.39</v>
       </c>
       <c r="U8" t="n">
-        <v>86.98999999999999</v>
+        <v>92.43000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>57.99</v>
+        <v>61.62</v>
       </c>
       <c r="W8" t="n">
-        <v>3.54</v>
+        <v>21.91</v>
       </c>
       <c r="X8" t="n">
-        <v>24.83</v>
+        <v>19.39</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.05</v>
+        <v>120.38</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.581</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-12-03 13:21:31</t>
+          <t>2026-12-02 14:33:02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3275,7 +2875,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.593</t>
+          <t>Mouse session - Score: 0.512</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3285,7 +2885,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20261203_001</t>
+          <t>MOUSE_20261202_003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3298,12 +2898,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-12-03</t>
+          <t>2026-12-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>13:21:31</t>
+          <t>14:33:02</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3312,58 +2912,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>23581</v>
+        <v>22098</v>
       </c>
       <c r="L9" t="n">
-        <v>23581</v>
+        <v>22098</v>
       </c>
       <c r="M9" t="n">
-        <v>21979.79</v>
+        <v>28140.64</v>
       </c>
       <c r="N9" t="n">
-        <v>13187.88</v>
+        <v>16884.38</v>
       </c>
       <c r="O9" t="n">
-        <v>8791.92</v>
+        <v>11256.25</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R9" t="n">
-        <v>37.7</v>
+        <v>170.22</v>
       </c>
       <c r="S9" t="n">
-        <v>583</v>
+        <v>165.32</v>
       </c>
       <c r="T9" t="n">
-        <v>11.36</v>
+        <v>19.41</v>
       </c>
       <c r="U9" t="n">
-        <v>349.8</v>
+        <v>99.19</v>
       </c>
       <c r="V9" t="n">
-        <v>233.2</v>
+        <v>66.13</v>
       </c>
       <c r="W9" t="n">
-        <v>12.13</v>
+        <v>15.58</v>
       </c>
       <c r="X9" t="n">
-        <v>22.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>37.7</v>
+        <v>170.22</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.593</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-12-03 14:18:09</t>
+          <t>2026-12-03 17:17:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3373,7 +2973,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.559</t>
+          <t>Mouse session - Score: 0.571</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3383,7 +2983,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20261203_002</t>
+          <t>MOUSE_20261203_000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3401,7 +3001,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:18:09</t>
+          <t>17:17:20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3410,58 +3010,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10045</v>
+        <v>28682</v>
       </c>
       <c r="L10" t="n">
-        <v>10045</v>
+        <v>28682</v>
       </c>
       <c r="M10" t="n">
-        <v>12405.67</v>
+        <v>29582.3</v>
       </c>
       <c r="N10" t="n">
-        <v>7443.4</v>
+        <v>17749.38</v>
       </c>
       <c r="O10" t="n">
-        <v>4962.27</v>
+        <v>11832.92</v>
       </c>
       <c r="P10" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>72.04000000000001</v>
+        <v>179.26</v>
       </c>
       <c r="S10" t="n">
-        <v>172.2</v>
+        <v>165.02</v>
       </c>
       <c r="T10" t="n">
-        <v>13.36</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>103.32</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="V10" t="n">
-        <v>68.88</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="W10" t="n">
-        <v>7.31</v>
+        <v>15.53</v>
       </c>
       <c r="X10" t="n">
-        <v>29.78</v>
+        <v>6.48</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.04000000000001</v>
+        <v>179.26</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-12-04 12:49:05</t>
+          <t>2026-12-03 13:23:24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3471,7 +3071,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.608</t>
+          <t>Mouse session - Score: 0.576</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3481,7 +3081,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20261204_000</t>
+          <t>MOUSE_20261203_001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3494,12 +3094,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:49:05</t>
+          <t>13:23:24</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3508,58 +3108,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>6222</v>
+        <v>18840</v>
       </c>
       <c r="L11" t="n">
-        <v>6222</v>
+        <v>18840</v>
       </c>
       <c r="M11" t="n">
-        <v>19687.27</v>
+        <v>16959.8</v>
       </c>
       <c r="N11" t="n">
-        <v>11812.36</v>
+        <v>10175.88</v>
       </c>
       <c r="O11" t="n">
-        <v>7874.91</v>
+        <v>6783.92</v>
       </c>
       <c r="P11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
-        <v>11</v>
-      </c>
       <c r="R11" t="n">
-        <v>94.51000000000001</v>
+        <v>109.51</v>
       </c>
       <c r="S11" t="n">
-        <v>208.31</v>
+        <v>154.87</v>
       </c>
       <c r="T11" t="n">
-        <v>34.01</v>
+        <v>26.76</v>
       </c>
       <c r="U11" t="n">
-        <v>124.99</v>
+        <v>92.92</v>
       </c>
       <c r="V11" t="n">
-        <v>83.33</v>
+        <v>61.95</v>
       </c>
       <c r="W11" t="n">
-        <v>16.78</v>
+        <v>4.85</v>
       </c>
       <c r="X11" t="n">
-        <v>11.51</v>
+        <v>21.91</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.51000000000001</v>
+        <v>109.51</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.608</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-12-04 16:00:40</t>
+          <t>2026-12-03 09:35:26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3569,7 +3169,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.630</t>
+          <t>Mouse session - Score: 0.553</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3579,7 +3179,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20261204_001</t>
+          <t>MOUSE_20261203_002</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3592,12 +3192,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:00:40</t>
+          <t>09:35:26</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3606,58 +3206,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>22800</v>
+        <v>19210</v>
       </c>
       <c r="L12" t="n">
-        <v>22800</v>
+        <v>19210</v>
       </c>
       <c r="M12" t="n">
-        <v>37623.45</v>
+        <v>31599.13</v>
       </c>
       <c r="N12" t="n">
-        <v>22574.07</v>
+        <v>18959.48</v>
       </c>
       <c r="O12" t="n">
-        <v>15049.38</v>
+        <v>12639.65</v>
       </c>
       <c r="P12" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="Q12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R12" t="n">
-        <v>115.69</v>
+        <v>96.05</v>
       </c>
       <c r="S12" t="n">
-        <v>325.21</v>
+        <v>329</v>
       </c>
       <c r="T12" t="n">
-        <v>47.27</v>
+        <v>32.32</v>
       </c>
       <c r="U12" t="n">
-        <v>195.12</v>
+        <v>197.4</v>
       </c>
       <c r="V12" t="n">
-        <v>130.08</v>
+        <v>131.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.31</v>
+        <v>10.56</v>
       </c>
       <c r="X12" t="n">
-        <v>22.39</v>
+        <v>4.91</v>
       </c>
       <c r="Y12" t="n">
-        <v>115.69</v>
+        <v>96.05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.63</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-12-04 09:16:22</t>
+          <t>2026-12-03 11:23:10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3667,7 +3267,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.566</t>
+          <t>Mouse session - Score: 0.548</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3677,7 +3277,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20261204_002</t>
+          <t>MOUSE_20261203_003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3690,12 +3290,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-03</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>09:16:22</t>
+          <t>11:23:10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3704,58 +3304,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>22773</v>
+        <v>20819</v>
       </c>
       <c r="L13" t="n">
-        <v>22773</v>
+        <v>20819</v>
       </c>
       <c r="M13" t="n">
-        <v>29716.87</v>
+        <v>7357.91</v>
       </c>
       <c r="N13" t="n">
-        <v>17830.12</v>
+        <v>4414.74</v>
       </c>
       <c r="O13" t="n">
-        <v>11886.75</v>
+        <v>2943.16</v>
       </c>
       <c r="P13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>160.18</v>
+        <v>99.02</v>
       </c>
       <c r="S13" t="n">
-        <v>185.52</v>
+        <v>74.31</v>
       </c>
       <c r="T13" t="n">
-        <v>40.69</v>
+        <v>48.5</v>
       </c>
       <c r="U13" t="n">
-        <v>111.31</v>
+        <v>44.59</v>
       </c>
       <c r="V13" t="n">
-        <v>74.20999999999999</v>
+        <v>29.72</v>
       </c>
       <c r="W13" t="n">
-        <v>7.78</v>
+        <v>7.56</v>
       </c>
       <c r="X13" t="n">
-        <v>14.23</v>
+        <v>14.91</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.18</v>
+        <v>99.02</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-12-07 12:36:48</t>
+          <t>2026-12-04 17:56:53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3765,7 +3365,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.579</t>
+          <t>Mouse session - Score: 0.499</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3775,7 +3375,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20261207_000</t>
+          <t>MOUSE_20261204_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3788,12 +3388,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>12:36:48</t>
+          <t>17:56:53</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3802,58 +3402,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>22469</v>
+        <v>22401</v>
       </c>
       <c r="L14" t="n">
-        <v>22469</v>
+        <v>22401</v>
       </c>
       <c r="M14" t="n">
-        <v>39274.14</v>
+        <v>37614.27</v>
       </c>
       <c r="N14" t="n">
-        <v>23564.49</v>
+        <v>22568.56</v>
       </c>
       <c r="O14" t="n">
-        <v>15709.66</v>
+        <v>15045.71</v>
       </c>
       <c r="P14" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R14" t="n">
-        <v>46.81</v>
+        <v>115.25</v>
       </c>
       <c r="S14" t="n">
-        <v>839.05</v>
+        <v>326.38</v>
       </c>
       <c r="T14" t="n">
-        <v>48.14</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>503.43</v>
+        <v>195.83</v>
       </c>
       <c r="V14" t="n">
-        <v>335.62</v>
+        <v>130.55</v>
       </c>
       <c r="W14" t="n">
-        <v>2.19</v>
+        <v>5.03</v>
       </c>
       <c r="X14" t="n">
-        <v>12.88</v>
+        <v>25.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.81</v>
+        <v>115.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.579</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-12-07 12:17:48</t>
+          <t>2026-12-04 09:42:55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3863,7 +3463,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.581</t>
+          <t>Mouse session - Score: 0.463</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3873,7 +3473,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20261207_001</t>
+          <t>MOUSE_20261204_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3886,12 +3486,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:17:48</t>
+          <t>09:42:55</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -3900,58 +3500,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>10073</v>
+        <v>22607</v>
       </c>
       <c r="L15" t="n">
-        <v>10073</v>
+        <v>22607</v>
       </c>
       <c r="M15" t="n">
-        <v>7227.18</v>
+        <v>35517.89</v>
       </c>
       <c r="N15" t="n">
-        <v>4336.31</v>
+        <v>21310.74</v>
       </c>
       <c r="O15" t="n">
-        <v>2890.87</v>
+        <v>14207.16</v>
       </c>
       <c r="P15" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="R15" t="n">
-        <v>52.28</v>
+        <v>118.5</v>
       </c>
       <c r="S15" t="n">
-        <v>138.25</v>
+        <v>299.72</v>
       </c>
       <c r="T15" t="n">
-        <v>34.41</v>
+        <v>6.13</v>
       </c>
       <c r="U15" t="n">
-        <v>82.95</v>
+        <v>179.83</v>
       </c>
       <c r="V15" t="n">
-        <v>55.3</v>
+        <v>119.89</v>
       </c>
       <c r="W15" t="n">
-        <v>11.17</v>
+        <v>22.22</v>
       </c>
       <c r="X15" t="n">
-        <v>22.07</v>
+        <v>13.39</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.28</v>
+        <v>118.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.581</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-12-07 12:19:27</t>
+          <t>2026-12-04 15:18:39</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3961,7 +3561,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.508</t>
+          <t>Mouse session - Score: 0.604</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3971,7 +3571,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20261207_002</t>
+          <t>MOUSE_20261204_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3984,12 +3584,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12:19:27</t>
+          <t>15:18:39</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3998,58 +3598,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>17636</v>
+        <v>22809</v>
       </c>
       <c r="L16" t="n">
-        <v>17636</v>
+        <v>22809</v>
       </c>
       <c r="M16" t="n">
-        <v>35446.27</v>
+        <v>11936.55</v>
       </c>
       <c r="N16" t="n">
-        <v>21267.76</v>
+        <v>7161.93</v>
       </c>
       <c r="O16" t="n">
-        <v>14178.51</v>
+        <v>4774.62</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R16" t="n">
-        <v>106.28</v>
+        <v>108.19</v>
       </c>
       <c r="S16" t="n">
-        <v>333.52</v>
+        <v>110.33</v>
       </c>
       <c r="T16" t="n">
-        <v>12.43</v>
+        <v>28.1</v>
       </c>
       <c r="U16" t="n">
-        <v>200.11</v>
+        <v>66.2</v>
       </c>
       <c r="V16" t="n">
-        <v>133.41</v>
+        <v>44.13</v>
       </c>
       <c r="W16" t="n">
-        <v>16.66</v>
+        <v>18.98</v>
       </c>
       <c r="X16" t="n">
-        <v>13.69</v>
+        <v>14.53</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.28</v>
+        <v>108.19</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.508</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-12-08 16:36:20</t>
+          <t>2026-12-04 09:54:33</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4059,7 +3659,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.585</t>
+          <t>Mouse session - Score: 0.583</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4069,7 +3669,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20261208_000</t>
+          <t>MOUSE_20261204_003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4082,12 +3682,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-04</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>16:36:20</t>
+          <t>09:54:33</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4096,58 +3696,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>25370</v>
+        <v>27219</v>
       </c>
       <c r="L17" t="n">
-        <v>25370</v>
+        <v>27219</v>
       </c>
       <c r="M17" t="n">
-        <v>14219.8</v>
+        <v>38607.1</v>
       </c>
       <c r="N17" t="n">
-        <v>8531.879999999999</v>
+        <v>23164.26</v>
       </c>
       <c r="O17" t="n">
-        <v>5687.92</v>
+        <v>15442.84</v>
       </c>
       <c r="P17" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" t="n">
-        <v>37.54</v>
+        <v>156.53</v>
       </c>
       <c r="S17" t="n">
-        <v>378.78</v>
+        <v>246.64</v>
       </c>
       <c r="T17" t="n">
-        <v>49.63</v>
+        <v>30.74</v>
       </c>
       <c r="U17" t="n">
-        <v>227.27</v>
+        <v>147.99</v>
       </c>
       <c r="V17" t="n">
-        <v>151.51</v>
+        <v>98.66</v>
       </c>
       <c r="W17" t="n">
-        <v>7.05</v>
+        <v>26.26</v>
       </c>
       <c r="X17" t="n">
-        <v>14.13</v>
+        <v>11.55</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.54</v>
+        <v>156.53</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.585</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-12-08 13:44:38</t>
+          <t>2026-12-07 15:14:45</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4157,7 +3757,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.500</t>
+          <t>Mouse session - Score: 0.486</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4167,7 +3767,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20261208_001</t>
+          <t>MOUSE_20261207_000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4180,12 +3780,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>13:44:38</t>
+          <t>15:14:45</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4194,58 +3794,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>27856</v>
+        <v>16833</v>
       </c>
       <c r="L18" t="n">
-        <v>27856</v>
+        <v>16833</v>
       </c>
       <c r="M18" t="n">
-        <v>10871.57</v>
+        <v>24868.29</v>
       </c>
       <c r="N18" t="n">
-        <v>6522.94</v>
+        <v>14920.97</v>
       </c>
       <c r="O18" t="n">
-        <v>4348.63</v>
+        <v>9947.32</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R18" t="n">
-        <v>35.03</v>
+        <v>132.54</v>
       </c>
       <c r="S18" t="n">
-        <v>310.31</v>
+        <v>187.63</v>
       </c>
       <c r="T18" t="n">
-        <v>17.95</v>
+        <v>29.13</v>
       </c>
       <c r="U18" t="n">
-        <v>186.19</v>
+        <v>112.58</v>
       </c>
       <c r="V18" t="n">
-        <v>124.13</v>
+        <v>75.05</v>
       </c>
       <c r="W18" t="n">
-        <v>16.11</v>
+        <v>2.73</v>
       </c>
       <c r="X18" t="n">
-        <v>10.13</v>
+        <v>13.47</v>
       </c>
       <c r="Y18" t="n">
-        <v>35.03</v>
+        <v>132.54</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-12-08 14:44:23</t>
+          <t>2026-12-07 11:32:10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4255,7 +3855,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.605</t>
+          <t>Mouse session - Score: 0.649</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4265,7 +3865,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20261208_002</t>
+          <t>MOUSE_20261207_001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4278,12 +3878,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-12-08</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>14:44:23</t>
+          <t>11:32:10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4292,58 +3892,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>25045</v>
+        <v>8858</v>
       </c>
       <c r="L19" t="n">
-        <v>25045</v>
+        <v>8858</v>
       </c>
       <c r="M19" t="n">
-        <v>20989.38</v>
+        <v>19989.48</v>
       </c>
       <c r="N19" t="n">
-        <v>12593.63</v>
+        <v>11993.69</v>
       </c>
       <c r="O19" t="n">
-        <v>8395.75</v>
+        <v>7995.79</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q19" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R19" t="n">
-        <v>99.29000000000001</v>
+        <v>67.56</v>
       </c>
       <c r="S19" t="n">
-        <v>211.39</v>
+        <v>295.88</v>
       </c>
       <c r="T19" t="n">
-        <v>35.55</v>
+        <v>8.15</v>
       </c>
       <c r="U19" t="n">
-        <v>126.83</v>
+        <v>177.53</v>
       </c>
       <c r="V19" t="n">
-        <v>84.55</v>
+        <v>118.35</v>
       </c>
       <c r="W19" t="n">
-        <v>6.91</v>
+        <v>21.47</v>
       </c>
       <c r="X19" t="n">
-        <v>22.89</v>
+        <v>16.15</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.29000000000001</v>
+        <v>67.56</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.605</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-12-09 11:30:52</t>
+          <t>2026-12-07 09:43:07</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4353,7 +3953,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.505</t>
+          <t>Mouse session - Score: 0.481</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4363,7 +3963,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20261209_000</t>
+          <t>MOUSE_20261207_002</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4376,12 +3976,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11:30:52</t>
+          <t>09:43:07</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4390,58 +3990,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>8499</v>
+        <v>23921</v>
       </c>
       <c r="L20" t="n">
-        <v>8499</v>
+        <v>23921</v>
       </c>
       <c r="M20" t="n">
-        <v>19762.88</v>
+        <v>8126.54</v>
       </c>
       <c r="N20" t="n">
-        <v>11857.73</v>
+        <v>4875.92</v>
       </c>
       <c r="O20" t="n">
-        <v>7905.15</v>
+        <v>3250.61</v>
       </c>
       <c r="P20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R20" t="n">
-        <v>88.98</v>
+        <v>33.64</v>
       </c>
       <c r="S20" t="n">
-        <v>222.09</v>
+        <v>241.58</v>
       </c>
       <c r="T20" t="n">
-        <v>5.12</v>
+        <v>44.19</v>
       </c>
       <c r="U20" t="n">
-        <v>133.26</v>
+        <v>144.95</v>
       </c>
       <c r="V20" t="n">
-        <v>88.84</v>
+        <v>96.63</v>
       </c>
       <c r="W20" t="n">
-        <v>8.23</v>
+        <v>13.4</v>
       </c>
       <c r="X20" t="n">
-        <v>19.01</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>88.98</v>
+        <v>33.64</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.505</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-12-09 17:33:42</t>
+          <t>2026-12-07 11:11:35</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4451,7 +4051,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.578</t>
+          <t>Mouse session - Score: 0.620</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4461,7 +4061,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20261209_001</t>
+          <t>MOUSE_20261207_003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4474,12 +4074,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>17:33:42</t>
+          <t>11:11:35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4488,58 +4088,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6372</v>
+        <v>5163</v>
       </c>
       <c r="L21" t="n">
-        <v>6372</v>
+        <v>5163</v>
       </c>
       <c r="M21" t="n">
-        <v>6436.55</v>
+        <v>23124.23</v>
       </c>
       <c r="N21" t="n">
-        <v>3861.93</v>
+        <v>13874.54</v>
       </c>
       <c r="O21" t="n">
-        <v>2574.62</v>
+        <v>9249.690000000001</v>
       </c>
       <c r="P21" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="n">
         <v>7</v>
       </c>
-      <c r="Q21" t="n">
-        <v>30</v>
-      </c>
       <c r="R21" t="n">
-        <v>109.14</v>
+        <v>41.98</v>
       </c>
       <c r="S21" t="n">
-        <v>58.98</v>
+        <v>550.88</v>
       </c>
       <c r="T21" t="n">
-        <v>42.1</v>
+        <v>27.77</v>
       </c>
       <c r="U21" t="n">
-        <v>35.39</v>
+        <v>330.53</v>
       </c>
       <c r="V21" t="n">
-        <v>23.59</v>
+        <v>220.35</v>
       </c>
       <c r="W21" t="n">
-        <v>6.67</v>
+        <v>15.46</v>
       </c>
       <c r="X21" t="n">
-        <v>6.85</v>
+        <v>21.98</v>
       </c>
       <c r="Y21" t="n">
-        <v>109.14</v>
+        <v>41.98</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.578</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-12-09 14:38:49</t>
+          <t>2026-12-08 17:34:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4549,7 +4149,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.897</t>
+          <t>Mouse session - Score: 0.496</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4559,25 +4159,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20261209_002</t>
+          <t>MOUSE_20261208_000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-12-09</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14:38:49</t>
+          <t>17:34:45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4586,58 +4186,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>21040</v>
+        <v>15976</v>
       </c>
       <c r="L22" t="n">
-        <v>21040</v>
+        <v>15976</v>
       </c>
       <c r="M22" t="n">
-        <v>24260.7</v>
+        <v>39274.19</v>
       </c>
       <c r="N22" t="n">
-        <v>14556.42</v>
+        <v>23564.52</v>
       </c>
       <c r="O22" t="n">
-        <v>9704.280000000001</v>
+        <v>15709.68</v>
       </c>
       <c r="P22" t="n">
         <v>13</v>
       </c>
       <c r="Q22" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>151.84</v>
+        <v>177.21</v>
       </c>
       <c r="S22" t="n">
-        <v>159.78</v>
+        <v>221.63</v>
       </c>
       <c r="T22" t="n">
-        <v>20.06</v>
+        <v>44.54</v>
       </c>
       <c r="U22" t="n">
-        <v>95.87</v>
+        <v>132.98</v>
       </c>
       <c r="V22" t="n">
-        <v>63.91</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="W22" t="n">
-        <v>9.960000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="X22" t="n">
-        <v>6.37</v>
+        <v>7.89</v>
       </c>
       <c r="Y22" t="n">
-        <v>151.84</v>
+        <v>177.21</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.897</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-12-10 17:48:20</t>
+          <t>2026-12-08 12:56:43</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4647,7 +4247,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.575</t>
+          <t>Mouse session - Score: 0.529</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4657,7 +4257,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20261210_000</t>
+          <t>MOUSE_20261208_001</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4670,12 +4270,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>17:48:20</t>
+          <t>12:56:43</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4684,58 +4284,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>17300</v>
+        <v>12016</v>
       </c>
       <c r="L23" t="n">
-        <v>17300</v>
+        <v>12016</v>
       </c>
       <c r="M23" t="n">
-        <v>12363.1</v>
+        <v>31687.57</v>
       </c>
       <c r="N23" t="n">
-        <v>7417.86</v>
+        <v>19012.54</v>
       </c>
       <c r="O23" t="n">
-        <v>4945.24</v>
+        <v>12675.03</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R23" t="n">
-        <v>177.27</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>69.73999999999999</v>
+        <v>385.95</v>
       </c>
       <c r="T23" t="n">
-        <v>16.39</v>
+        <v>41.61</v>
       </c>
       <c r="U23" t="n">
-        <v>41.84</v>
+        <v>231.57</v>
       </c>
       <c r="V23" t="n">
-        <v>27.9</v>
+        <v>154.38</v>
       </c>
       <c r="W23" t="n">
-        <v>26.81</v>
+        <v>25.98</v>
       </c>
       <c r="X23" t="n">
-        <v>6.81</v>
+        <v>23.69</v>
       </c>
       <c r="Y23" t="n">
-        <v>177.27</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.575</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-12-10 09:14:35</t>
+          <t>2026-12-08 16:10:49</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4745,7 +4345,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.591</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4755,7 +4355,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20261210_001</t>
+          <t>MOUSE_20261208_002</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4768,12 +4368,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:14:35</t>
+          <t>16:10:49</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4782,58 +4382,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>8099</v>
+        <v>12768</v>
       </c>
       <c r="L24" t="n">
-        <v>8099</v>
+        <v>12768</v>
       </c>
       <c r="M24" t="n">
-        <v>39082.2</v>
+        <v>27909.55</v>
       </c>
       <c r="N24" t="n">
-        <v>23449.32</v>
+        <v>16745.73</v>
       </c>
       <c r="O24" t="n">
-        <v>15632.88</v>
+        <v>11163.82</v>
       </c>
       <c r="P24" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="R24" t="n">
-        <v>162.69</v>
+        <v>33.2</v>
       </c>
       <c r="S24" t="n">
-        <v>240.22</v>
+        <v>840.7</v>
       </c>
       <c r="T24" t="n">
-        <v>7.46</v>
+        <v>15.96</v>
       </c>
       <c r="U24" t="n">
-        <v>144.13</v>
+        <v>504.42</v>
       </c>
       <c r="V24" t="n">
-        <v>96.09</v>
+        <v>336.28</v>
       </c>
       <c r="W24" t="n">
-        <v>22.15</v>
+        <v>11.88</v>
       </c>
       <c r="X24" t="n">
-        <v>24.74</v>
+        <v>6.29</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.69</v>
+        <v>33.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.591</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-12-10 17:41:52</t>
+          <t>2026-12-08 11:20:56</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4843,7 +4443,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.541</t>
+          <t>Mouse session - Score: 0.554</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4853,7 +4453,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20261210_002</t>
+          <t>MOUSE_20261208_003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4866,12 +4466,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-12-10</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:41:52</t>
+          <t>11:20:56</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4880,58 +4480,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>22445</v>
+        <v>11351</v>
       </c>
       <c r="L25" t="n">
-        <v>22445</v>
+        <v>11351</v>
       </c>
       <c r="M25" t="n">
-        <v>38342.12</v>
+        <v>24503.66</v>
       </c>
       <c r="N25" t="n">
-        <v>23005.27</v>
+        <v>14702.19</v>
       </c>
       <c r="O25" t="n">
-        <v>15336.85</v>
+        <v>9801.459999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R25" t="n">
-        <v>120.36</v>
+        <v>103.7</v>
       </c>
       <c r="S25" t="n">
-        <v>318.55</v>
+        <v>236.29</v>
       </c>
       <c r="T25" t="n">
-        <v>19.1</v>
+        <v>35.69</v>
       </c>
       <c r="U25" t="n">
-        <v>191.13</v>
+        <v>141.77</v>
       </c>
       <c r="V25" t="n">
-        <v>127.42</v>
+        <v>94.52</v>
       </c>
       <c r="W25" t="n">
-        <v>26.18</v>
+        <v>2.81</v>
       </c>
       <c r="X25" t="n">
-        <v>19.6</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.36</v>
+        <v>103.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.541</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-12-11 17:29:20</t>
+          <t>2026-12-09 17:55:17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4941,7 +4541,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.614</t>
+          <t>Mouse session - Score: 0.885</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4951,25 +4551,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20261211_000</t>
+          <t>MOUSE_20261209_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>17:29:20</t>
+          <t>17:55:17</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4978,58 +4578,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>14290</v>
+        <v>23530</v>
       </c>
       <c r="L26" t="n">
-        <v>14290</v>
+        <v>23530</v>
       </c>
       <c r="M26" t="n">
-        <v>25360.54</v>
+        <v>5299.1</v>
       </c>
       <c r="N26" t="n">
-        <v>15216.32</v>
+        <v>3179.46</v>
       </c>
       <c r="O26" t="n">
-        <v>10144.22</v>
+        <v>2119.64</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>115.41</v>
+        <v>174.47</v>
       </c>
       <c r="S26" t="n">
-        <v>219.75</v>
+        <v>30.37</v>
       </c>
       <c r="T26" t="n">
-        <v>39.44</v>
+        <v>48.95</v>
       </c>
       <c r="U26" t="n">
-        <v>131.85</v>
+        <v>18.22</v>
       </c>
       <c r="V26" t="n">
-        <v>87.90000000000001</v>
+        <v>12.15</v>
       </c>
       <c r="W26" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="X26" t="n">
-        <v>24.2</v>
+        <v>24.68</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.41</v>
+        <v>174.47</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.614</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-12-11 11:02:47</t>
+          <t>2026-12-09 09:02:48</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5039,7 +4639,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.516</t>
+          <t>Mouse session - Score: 0.585</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5049,7 +4649,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20261211_001</t>
+          <t>MOUSE_20261209_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5062,12 +4662,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11:02:47</t>
+          <t>09:02:48</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5076,58 +4676,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>28948</v>
+        <v>29226</v>
       </c>
       <c r="L27" t="n">
-        <v>28948</v>
+        <v>29226</v>
       </c>
       <c r="M27" t="n">
-        <v>30064.11</v>
+        <v>11430.54</v>
       </c>
       <c r="N27" t="n">
-        <v>18038.46</v>
+        <v>6858.33</v>
       </c>
       <c r="O27" t="n">
-        <v>12025.64</v>
+        <v>4572.22</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R27" t="n">
-        <v>98.90000000000001</v>
+        <v>85.05</v>
       </c>
       <c r="S27" t="n">
-        <v>303.98</v>
+        <v>134.4</v>
       </c>
       <c r="T27" t="n">
-        <v>30.33</v>
+        <v>27.5</v>
       </c>
       <c r="U27" t="n">
-        <v>182.39</v>
+        <v>80.64</v>
       </c>
       <c r="V27" t="n">
-        <v>121.59</v>
+        <v>53.76</v>
       </c>
       <c r="W27" t="n">
-        <v>29.34</v>
+        <v>4.22</v>
       </c>
       <c r="X27" t="n">
-        <v>7.11</v>
+        <v>21.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>98.90000000000001</v>
+        <v>85.05</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.516</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-12-11 12:17:06</t>
+          <t>2026-12-09 12:05:19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5137,7 +4737,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.622</t>
+          <t>Mouse session - Score: 0.640</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5147,7 +4747,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20261211_002</t>
+          <t>MOUSE_20261209_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5160,12 +4760,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12:17:06</t>
+          <t>12:05:19</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5174,58 +4774,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>9307</v>
+        <v>7323</v>
       </c>
       <c r="L28" t="n">
-        <v>9307</v>
+        <v>7323</v>
       </c>
       <c r="M28" t="n">
-        <v>38296.58</v>
+        <v>24528.2</v>
       </c>
       <c r="N28" t="n">
-        <v>22977.95</v>
+        <v>14716.92</v>
       </c>
       <c r="O28" t="n">
-        <v>15318.63</v>
+        <v>9811.280000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="R28" t="n">
-        <v>59.33</v>
+        <v>65.03</v>
       </c>
       <c r="S28" t="n">
-        <v>645.52</v>
+        <v>377.16</v>
       </c>
       <c r="T28" t="n">
-        <v>49.32</v>
+        <v>21.76</v>
       </c>
       <c r="U28" t="n">
-        <v>387.31</v>
+        <v>226.3</v>
       </c>
       <c r="V28" t="n">
-        <v>258.21</v>
+        <v>150.86</v>
       </c>
       <c r="W28" t="n">
-        <v>18.96</v>
+        <v>25.04</v>
       </c>
       <c r="X28" t="n">
-        <v>10.49</v>
+        <v>17.14</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.33</v>
+        <v>65.03</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.622</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-12-13 13:33:55</t>
+          <t>2026-12-09 14:29:59</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5235,7 +4835,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.632</t>
+          <t>Mouse session - Score: 0.511</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5245,7 +4845,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20261213_000</t>
+          <t>MOUSE_20261209_003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5258,12 +4858,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-09</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13:33:55</t>
+          <t>14:29:59</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5272,58 +4872,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>11967</v>
+        <v>21865</v>
       </c>
       <c r="L29" t="n">
-        <v>11967</v>
+        <v>21865</v>
       </c>
       <c r="M29" t="n">
-        <v>25264.62</v>
+        <v>9308.67</v>
       </c>
       <c r="N29" t="n">
-        <v>15158.77</v>
+        <v>5585.2</v>
       </c>
       <c r="O29" t="n">
-        <v>10105.85</v>
+        <v>3723.47</v>
       </c>
       <c r="P29" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>152.74</v>
+        <v>54.88</v>
       </c>
       <c r="S29" t="n">
-        <v>165.41</v>
+        <v>169.63</v>
       </c>
       <c r="T29" t="n">
-        <v>35.2</v>
+        <v>18.59</v>
       </c>
       <c r="U29" t="n">
-        <v>99.25</v>
+        <v>101.78</v>
       </c>
       <c r="V29" t="n">
-        <v>66.16</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>8.06</v>
+        <v>3.38</v>
       </c>
       <c r="X29" t="n">
-        <v>25.87</v>
+        <v>12.29</v>
       </c>
       <c r="Y29" t="n">
-        <v>152.74</v>
+        <v>54.88</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.632</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-12-13 15:06:02</t>
+          <t>2026-12-10 15:18:53</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5333,7 +4933,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.560</t>
+          <t>Mouse session - Score: 0.913</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5343,25 +4943,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20261213_001</t>
+          <t>MOUSE_20261210_000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:06:02</t>
+          <t>15:18:53</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5370,58 +4970,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>6206</v>
+        <v>14541</v>
       </c>
       <c r="L30" t="n">
-        <v>6206</v>
+        <v>14541</v>
       </c>
       <c r="M30" t="n">
-        <v>30841.11</v>
+        <v>6621.37</v>
       </c>
       <c r="N30" t="n">
-        <v>18504.67</v>
+        <v>3972.82</v>
       </c>
       <c r="O30" t="n">
-        <v>12336.44</v>
+        <v>2648.55</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="R30" t="n">
-        <v>58.94</v>
+        <v>149.16</v>
       </c>
       <c r="S30" t="n">
-        <v>523.25</v>
+        <v>44.39</v>
       </c>
       <c r="T30" t="n">
-        <v>38.79</v>
+        <v>28.44</v>
       </c>
       <c r="U30" t="n">
-        <v>313.95</v>
+        <v>26.63</v>
       </c>
       <c r="V30" t="n">
-        <v>209.3</v>
+        <v>17.76</v>
       </c>
       <c r="W30" t="n">
-        <v>8.83</v>
+        <v>10.02</v>
       </c>
       <c r="X30" t="n">
-        <v>23.58</v>
+        <v>20.53</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.94</v>
+        <v>149.16</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-12-13 13:35:37</t>
+          <t>2026-12-10 17:22:01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5431,7 +5031,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.493</t>
+          <t>Mouse session - Score: 0.498</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5441,7 +5041,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20261213_002</t>
+          <t>MOUSE_20261210_001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5454,12 +5054,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-12-13</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13:35:37</t>
+          <t>17:22:01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5468,58 +5068,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>9057</v>
+        <v>28467</v>
       </c>
       <c r="L31" t="n">
-        <v>9057</v>
+        <v>28467</v>
       </c>
       <c r="M31" t="n">
-        <v>17674.5</v>
+        <v>15571.95</v>
       </c>
       <c r="N31" t="n">
-        <v>10604.7</v>
+        <v>9343.17</v>
       </c>
       <c r="O31" t="n">
-        <v>7069.8</v>
+        <v>6228.78</v>
       </c>
       <c r="P31" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q31" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>112.63</v>
+        <v>46.6</v>
       </c>
       <c r="S31" t="n">
-        <v>156.92</v>
+        <v>334.14</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9</v>
+        <v>33.67</v>
       </c>
       <c r="U31" t="n">
-        <v>94.15000000000001</v>
+        <v>200.48</v>
       </c>
       <c r="V31" t="n">
-        <v>62.77</v>
+        <v>133.65</v>
       </c>
       <c r="W31" t="n">
-        <v>23.34</v>
+        <v>21.64</v>
       </c>
       <c r="X31" t="n">
-        <v>6.28</v>
+        <v>7.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.63</v>
+        <v>46.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-12-14 14:53:54</t>
+          <t>2026-12-10 13:41:48</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5529,7 +5129,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.598</t>
+          <t>Mouse session - Score: 0.486</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5539,7 +5139,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20261214_000</t>
+          <t>MOUSE_20261210_002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5552,12 +5152,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>14:53:54</t>
+          <t>13:41:48</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5566,58 +5166,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>28981</v>
+        <v>22160</v>
       </c>
       <c r="L32" t="n">
-        <v>28981</v>
+        <v>22160</v>
       </c>
       <c r="M32" t="n">
-        <v>11420.04</v>
+        <v>26180.77</v>
       </c>
       <c r="N32" t="n">
-        <v>6852.02</v>
+        <v>15708.46</v>
       </c>
       <c r="O32" t="n">
-        <v>4568.02</v>
+        <v>10472.31</v>
       </c>
       <c r="P32" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R32" t="n">
-        <v>44.82</v>
+        <v>85.48</v>
       </c>
       <c r="S32" t="n">
-        <v>254.81</v>
+        <v>306.28</v>
       </c>
       <c r="T32" t="n">
-        <v>20.39</v>
+        <v>38.78</v>
       </c>
       <c r="U32" t="n">
-        <v>152.89</v>
+        <v>183.77</v>
       </c>
       <c r="V32" t="n">
-        <v>101.92</v>
+        <v>122.51</v>
       </c>
       <c r="W32" t="n">
-        <v>13.93</v>
+        <v>17.77</v>
       </c>
       <c r="X32" t="n">
-        <v>26.32</v>
+        <v>2.73</v>
       </c>
       <c r="Y32" t="n">
-        <v>44.82</v>
+        <v>85.48</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.598</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-12-14 17:47:32</t>
+          <t>2026-12-10 14:50:30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5627,7 +5227,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.553</t>
+          <t>Mouse session - Score: 0.501</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5637,7 +5237,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20261214_001</t>
+          <t>MOUSE_20261210_003</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5650,12 +5250,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>17:47:32</t>
+          <t>14:50:30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5664,58 +5264,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>11095</v>
+        <v>23355</v>
       </c>
       <c r="L33" t="n">
-        <v>11095</v>
+        <v>23355</v>
       </c>
       <c r="M33" t="n">
-        <v>22962.14</v>
+        <v>10434.15</v>
       </c>
       <c r="N33" t="n">
-        <v>13777.29</v>
+        <v>6260.49</v>
       </c>
       <c r="O33" t="n">
-        <v>9184.860000000001</v>
+        <v>4173.66</v>
       </c>
       <c r="P33" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q33" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R33" t="n">
-        <v>71.06</v>
+        <v>40.87</v>
       </c>
       <c r="S33" t="n">
-        <v>323.14</v>
+        <v>255.29</v>
       </c>
       <c r="T33" t="n">
-        <v>27.91</v>
+        <v>42.43</v>
       </c>
       <c r="U33" t="n">
-        <v>193.88</v>
+        <v>153.17</v>
       </c>
       <c r="V33" t="n">
-        <v>129.26</v>
+        <v>102.12</v>
       </c>
       <c r="W33" t="n">
-        <v>21.18</v>
+        <v>9.98</v>
       </c>
       <c r="X33" t="n">
-        <v>2.03</v>
+        <v>26.73</v>
       </c>
       <c r="Y33" t="n">
-        <v>71.06</v>
+        <v>40.87</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.553</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-12-14 14:26:31</t>
+          <t>2026-12-11 15:15:43</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5725,7 +5325,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.820</t>
+          <t>Mouse session - Score: 0.459</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5735,25 +5335,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20261214_002</t>
+          <t>MOUSE_20261211_000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>14:26:31</t>
+          <t>15:15:43</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -5762,58 +5362,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>17882</v>
+        <v>18529</v>
       </c>
       <c r="L34" t="n">
-        <v>17882</v>
+        <v>18529</v>
       </c>
       <c r="M34" t="n">
-        <v>34870.58</v>
+        <v>25576.94</v>
       </c>
       <c r="N34" t="n">
-        <v>20922.35</v>
+        <v>15346.16</v>
       </c>
       <c r="O34" t="n">
-        <v>13948.23</v>
+        <v>10230.78</v>
       </c>
       <c r="P34" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R34" t="n">
-        <v>163.86</v>
+        <v>147.25</v>
       </c>
       <c r="S34" t="n">
-        <v>212.81</v>
+        <v>173.7</v>
       </c>
       <c r="T34" t="n">
-        <v>12.91</v>
+        <v>30.84</v>
       </c>
       <c r="U34" t="n">
-        <v>127.69</v>
+        <v>104.22</v>
       </c>
       <c r="V34" t="n">
-        <v>85.12</v>
+        <v>69.48</v>
       </c>
       <c r="W34" t="n">
-        <v>28.38</v>
+        <v>27.99</v>
       </c>
       <c r="X34" t="n">
-        <v>22.89</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>163.86</v>
+        <v>147.25</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.82</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-12-15 17:52:42</t>
+          <t>2026-12-11 10:03:23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5823,7 +5423,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.482</t>
+          <t>Mouse session - Score: 0.631</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5833,7 +5433,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20261215_000</t>
+          <t>MOUSE_20261211_001</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5846,12 +5446,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>17:52:42</t>
+          <t>10:03:23</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -5860,58 +5460,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>19730</v>
+        <v>7664</v>
       </c>
       <c r="L35" t="n">
-        <v>19730</v>
+        <v>7664</v>
       </c>
       <c r="M35" t="n">
-        <v>29439.24</v>
+        <v>6408.19</v>
       </c>
       <c r="N35" t="n">
-        <v>17663.55</v>
+        <v>3844.91</v>
       </c>
       <c r="O35" t="n">
-        <v>11775.7</v>
+        <v>2563.27</v>
       </c>
       <c r="P35" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>46.02</v>
+        <v>171.96</v>
       </c>
       <c r="S35" t="n">
-        <v>639.72</v>
+        <v>37.27</v>
       </c>
       <c r="T35" t="n">
-        <v>18.62</v>
+        <v>21.87</v>
       </c>
       <c r="U35" t="n">
-        <v>383.83</v>
+        <v>22.36</v>
       </c>
       <c r="V35" t="n">
-        <v>255.89</v>
+        <v>14.91</v>
       </c>
       <c r="W35" t="n">
-        <v>7.3</v>
+        <v>23.03</v>
       </c>
       <c r="X35" t="n">
-        <v>22.72</v>
+        <v>23.07</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.02</v>
+        <v>171.96</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.482</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-12-15 15:45:09</t>
+          <t>2026-12-11 13:40:08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5921,7 +5521,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.546</t>
+          <t>Mouse session - Score: 0.908</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5931,25 +5531,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20261215_001</t>
+          <t>MOUSE_20261211_002</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>15:45:09</t>
+          <t>13:40:08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -5958,58 +5558,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>9239</v>
+        <v>10839</v>
       </c>
       <c r="L36" t="n">
-        <v>9239</v>
+        <v>10839</v>
       </c>
       <c r="M36" t="n">
-        <v>6024.66</v>
+        <v>17789.15</v>
       </c>
       <c r="N36" t="n">
-        <v>3614.8</v>
+        <v>10673.49</v>
       </c>
       <c r="O36" t="n">
-        <v>2409.86</v>
+        <v>7115.66</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R36" t="n">
-        <v>34.58</v>
+        <v>176.01</v>
       </c>
       <c r="S36" t="n">
-        <v>174.23</v>
+        <v>101.07</v>
       </c>
       <c r="T36" t="n">
-        <v>39.08</v>
+        <v>6.39</v>
       </c>
       <c r="U36" t="n">
-        <v>104.54</v>
+        <v>60.64</v>
       </c>
       <c r="V36" t="n">
-        <v>69.69</v>
+        <v>40.43</v>
       </c>
       <c r="W36" t="n">
-        <v>11.56</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="X36" t="n">
-        <v>17.71</v>
+        <v>5.06</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.58</v>
+        <v>176.01</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.546</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-12-15 09:26:51</t>
+          <t>2026-12-11 09:55:27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6019,7 +5619,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.535</t>
+          <t>Mouse session - Score: 0.453</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6029,7 +5629,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20261215_002</t>
+          <t>MOUSE_20261211_003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6042,12 +5642,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-12-15</t>
+          <t>2026-12-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>09:26:51</t>
+          <t>09:55:27</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6056,58 +5656,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7130</v>
+        <v>14312</v>
       </c>
       <c r="L37" t="n">
-        <v>7130</v>
+        <v>14312</v>
       </c>
       <c r="M37" t="n">
-        <v>9954.469999999999</v>
+        <v>19021.29</v>
       </c>
       <c r="N37" t="n">
-        <v>5972.68</v>
+        <v>11412.77</v>
       </c>
       <c r="O37" t="n">
-        <v>3981.79</v>
+        <v>7608.52</v>
       </c>
       <c r="P37" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q37" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="R37" t="n">
-        <v>66.09</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="S37" t="n">
-        <v>150.63</v>
+        <v>206.16</v>
       </c>
       <c r="T37" t="n">
-        <v>37.47</v>
+        <v>27.52</v>
       </c>
       <c r="U37" t="n">
-        <v>90.38</v>
+        <v>123.7</v>
       </c>
       <c r="V37" t="n">
-        <v>60.25</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="W37" t="n">
-        <v>10.96</v>
+        <v>13.47</v>
       </c>
       <c r="X37" t="n">
-        <v>3.85</v>
+        <v>6.97</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.09</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.535</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-12-16 16:19:56</t>
+          <t>2026-12-14 09:36:29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6117,7 +5717,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.847</t>
+          <t>Mouse session - Score: 0.499</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6127,25 +5727,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20261216_000</t>
+          <t>MOUSE_20261214_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>16:19:56</t>
+          <t>09:36:29</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6154,58 +5754,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>17175</v>
+        <v>27636</v>
       </c>
       <c r="L38" t="n">
-        <v>17175</v>
+        <v>27636</v>
       </c>
       <c r="M38" t="n">
-        <v>31370.23</v>
+        <v>18364.85</v>
       </c>
       <c r="N38" t="n">
-        <v>18822.14</v>
+        <v>11018.91</v>
       </c>
       <c r="O38" t="n">
-        <v>12548.09</v>
+        <v>7345.94</v>
       </c>
       <c r="P38" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>36.84</v>
+        <v>75.14</v>
       </c>
       <c r="S38" t="n">
-        <v>851.5700000000001</v>
+        <v>244.4</v>
       </c>
       <c r="T38" t="n">
-        <v>28.66</v>
+        <v>28.88</v>
       </c>
       <c r="U38" t="n">
-        <v>510.94</v>
+        <v>146.64</v>
       </c>
       <c r="V38" t="n">
-        <v>340.63</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="W38" t="n">
-        <v>15.59</v>
+        <v>23.55</v>
       </c>
       <c r="X38" t="n">
-        <v>22.51</v>
+        <v>2.19</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.84</v>
+        <v>75.14</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.847</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-12-16 13:41:48</t>
+          <t>2026-12-14 16:05:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6215,7 +5815,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.460</t>
+          <t>Mouse session - Score: 0.519</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6225,7 +5825,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20261216_001</t>
+          <t>MOUSE_20261214_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6238,12 +5838,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>13:41:48</t>
+          <t>16:05:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6252,58 +5852,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>9919</v>
+        <v>8807</v>
       </c>
       <c r="L39" t="n">
-        <v>9919</v>
+        <v>8807</v>
       </c>
       <c r="M39" t="n">
-        <v>35442.52</v>
+        <v>35265.18</v>
       </c>
       <c r="N39" t="n">
-        <v>21265.51</v>
+        <v>21159.11</v>
       </c>
       <c r="O39" t="n">
-        <v>14177.01</v>
+        <v>14106.07</v>
       </c>
       <c r="P39" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q39" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="R39" t="n">
-        <v>130.47</v>
+        <v>139.25</v>
       </c>
       <c r="S39" t="n">
-        <v>271.65</v>
+        <v>253.25</v>
       </c>
       <c r="T39" t="n">
-        <v>15.55</v>
+        <v>9.48</v>
       </c>
       <c r="U39" t="n">
-        <v>162.99</v>
+        <v>151.95</v>
       </c>
       <c r="V39" t="n">
-        <v>108.66</v>
+        <v>101.3</v>
       </c>
       <c r="W39" t="n">
-        <v>21.66</v>
+        <v>12.65</v>
       </c>
       <c r="X39" t="n">
-        <v>15.05</v>
+        <v>19.11</v>
       </c>
       <c r="Y39" t="n">
-        <v>130.47</v>
+        <v>139.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.46</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-12-16 12:37:28</t>
+          <t>2026-12-14 09:16:25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6313,7 +5913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.468</t>
+          <t>Mouse session - Score: 0.491</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6323,7 +5923,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20261216_002</t>
+          <t>MOUSE_20261214_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6336,12 +5936,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>12:37:28</t>
+          <t>09:16:25</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6350,58 +5950,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>8950</v>
+        <v>7251</v>
       </c>
       <c r="L40" t="n">
-        <v>8950</v>
+        <v>7251</v>
       </c>
       <c r="M40" t="n">
-        <v>22851.1</v>
+        <v>37998.12</v>
       </c>
       <c r="N40" t="n">
-        <v>13710.66</v>
+        <v>22798.87</v>
       </c>
       <c r="O40" t="n">
-        <v>9140.440000000001</v>
+        <v>15199.25</v>
       </c>
       <c r="P40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q40" t="n">
         <v>2</v>
       </c>
-      <c r="Q40" t="n">
-        <v>10</v>
-      </c>
       <c r="R40" t="n">
-        <v>85.73</v>
+        <v>49.85</v>
       </c>
       <c r="S40" t="n">
-        <v>266.54</v>
+        <v>762.28</v>
       </c>
       <c r="T40" t="n">
-        <v>33.56</v>
+        <v>35.03</v>
       </c>
       <c r="U40" t="n">
-        <v>159.92</v>
+        <v>457.37</v>
       </c>
       <c r="V40" t="n">
-        <v>106.61</v>
+        <v>304.91</v>
       </c>
       <c r="W40" t="n">
-        <v>15.35</v>
+        <v>3.65</v>
       </c>
       <c r="X40" t="n">
-        <v>18.39</v>
+        <v>21.04</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.73</v>
+        <v>49.85</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.468</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-12-17 09:04:34</t>
+          <t>2026-12-14 11:56:30</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6411,7 +6011,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.584</t>
+          <t>Mouse session - Score: 0.641</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6421,7 +6021,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20261217_000</t>
+          <t>MOUSE_20261214_003</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6434,12 +6034,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>09:04:34</t>
+          <t>11:56:30</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6448,58 +6048,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7559</v>
+        <v>15763</v>
       </c>
       <c r="L41" t="n">
-        <v>7559</v>
+        <v>15763</v>
       </c>
       <c r="M41" t="n">
-        <v>35898.67</v>
+        <v>14000.85</v>
       </c>
       <c r="N41" t="n">
-        <v>21539.2</v>
+        <v>8400.51</v>
       </c>
       <c r="O41" t="n">
-        <v>14359.47</v>
+        <v>5600.34</v>
       </c>
       <c r="P41" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>45.39</v>
+        <v>37.26</v>
       </c>
       <c r="S41" t="n">
-        <v>790.96</v>
+        <v>375.77</v>
       </c>
       <c r="T41" t="n">
-        <v>15.38</v>
+        <v>5.4</v>
       </c>
       <c r="U41" t="n">
-        <v>474.57</v>
+        <v>225.46</v>
       </c>
       <c r="V41" t="n">
-        <v>316.38</v>
+        <v>150.31</v>
       </c>
       <c r="W41" t="n">
-        <v>2.17</v>
+        <v>26.91</v>
       </c>
       <c r="X41" t="n">
-        <v>17.76</v>
+        <v>13.41</v>
       </c>
       <c r="Y41" t="n">
-        <v>45.39</v>
+        <v>37.26</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.584</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-12-17 13:20:41</t>
+          <t>2026-12-15 17:30:27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6509,7 +6109,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.596</t>
+          <t>Mouse session - Score: 0.538</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6519,7 +6119,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20261217_001</t>
+          <t>MOUSE_20261215_000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6532,12 +6132,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>13:20:41</t>
+          <t>17:30:27</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6546,58 +6146,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>28028</v>
+        <v>25488</v>
       </c>
       <c r="L42" t="n">
-        <v>28028</v>
+        <v>25488</v>
       </c>
       <c r="M42" t="n">
-        <v>25065.71</v>
+        <v>22748.46</v>
       </c>
       <c r="N42" t="n">
-        <v>15039.43</v>
+        <v>13649.08</v>
       </c>
       <c r="O42" t="n">
-        <v>10026.29</v>
+        <v>9099.379999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="Q42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R42" t="n">
-        <v>121.93</v>
+        <v>152.79</v>
       </c>
       <c r="S42" t="n">
-        <v>205.58</v>
+        <v>148.88</v>
       </c>
       <c r="T42" t="n">
-        <v>41.63</v>
+        <v>33.78</v>
       </c>
       <c r="U42" t="n">
-        <v>123.35</v>
+        <v>89.33</v>
       </c>
       <c r="V42" t="n">
-        <v>82.23</v>
+        <v>59.55</v>
       </c>
       <c r="W42" t="n">
-        <v>27.18</v>
+        <v>12.84</v>
       </c>
       <c r="X42" t="n">
-        <v>6.84</v>
+        <v>13.32</v>
       </c>
       <c r="Y42" t="n">
-        <v>121.93</v>
+        <v>152.79</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.596</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-12-17 15:08:14</t>
+          <t>2026-12-15 17:17:03</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6607,7 +6207,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.523</t>
+          <t>Mouse session - Score: 0.531</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6617,7 +6217,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20261217_002</t>
+          <t>MOUSE_20261215_001</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6630,12 +6230,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>15:08:14</t>
+          <t>17:17:03</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6644,58 +6244,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>28735</v>
+        <v>22660</v>
       </c>
       <c r="L43" t="n">
-        <v>28735</v>
+        <v>22660</v>
       </c>
       <c r="M43" t="n">
-        <v>33964.76</v>
+        <v>14402.23</v>
       </c>
       <c r="N43" t="n">
-        <v>20378.85</v>
+        <v>8641.34</v>
       </c>
       <c r="O43" t="n">
-        <v>13585.9</v>
+        <v>5760.89</v>
       </c>
       <c r="P43" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Q43" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R43" t="n">
-        <v>131.37</v>
+        <v>119.17</v>
       </c>
       <c r="S43" t="n">
-        <v>258.54</v>
+        <v>120.86</v>
       </c>
       <c r="T43" t="n">
-        <v>16.95</v>
+        <v>29.96</v>
       </c>
       <c r="U43" t="n">
-        <v>155.12</v>
+        <v>72.52</v>
       </c>
       <c r="V43" t="n">
-        <v>103.42</v>
+        <v>48.34</v>
       </c>
       <c r="W43" t="n">
-        <v>27.06</v>
+        <v>12.31</v>
       </c>
       <c r="X43" t="n">
-        <v>7.99</v>
+        <v>13.83</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.37</v>
+        <v>119.17</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.523</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-12-18 10:38:36</t>
+          <t>2026-12-15 16:41:57</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6705,7 +6305,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.464</t>
+          <t>Mouse session - Score: 0.581</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6715,7 +6315,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20261218_000</t>
+          <t>MOUSE_20261215_002</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6728,12 +6328,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:38:36</t>
+          <t>16:41:57</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6742,58 +6342,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>24057</v>
+        <v>24127</v>
       </c>
       <c r="L44" t="n">
-        <v>24057</v>
+        <v>24127</v>
       </c>
       <c r="M44" t="n">
-        <v>24061.93</v>
+        <v>8080.41</v>
       </c>
       <c r="N44" t="n">
-        <v>14437.16</v>
+        <v>4848.25</v>
       </c>
       <c r="O44" t="n">
-        <v>9624.77</v>
+        <v>3232.16</v>
       </c>
       <c r="P44" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="R44" t="n">
-        <v>125.42</v>
+        <v>160.03</v>
       </c>
       <c r="S44" t="n">
-        <v>191.86</v>
+        <v>50.49</v>
       </c>
       <c r="T44" t="n">
-        <v>44.34</v>
+        <v>27.93</v>
       </c>
       <c r="U44" t="n">
-        <v>115.11</v>
+        <v>30.3</v>
       </c>
       <c r="V44" t="n">
-        <v>76.73999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="W44" t="n">
-        <v>21.95</v>
+        <v>12.56</v>
       </c>
       <c r="X44" t="n">
-        <v>14.99</v>
+        <v>28.64</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.42</v>
+        <v>160.03</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.464</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-12-18 11:13:30</t>
+          <t>2026-12-15 12:28:34</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6803,7 +6403,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.544</t>
+          <t>Mouse session - Score: 0.555</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6813,7 +6413,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20261218_001</t>
+          <t>MOUSE_20261215_003</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -6826,12 +6426,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>11:13:30</t>
+          <t>12:28:34</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -6840,58 +6440,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>24086</v>
+        <v>16598</v>
       </c>
       <c r="L45" t="n">
-        <v>24086</v>
+        <v>16598</v>
       </c>
       <c r="M45" t="n">
-        <v>38527.99</v>
+        <v>9022.49</v>
       </c>
       <c r="N45" t="n">
-        <v>23116.8</v>
+        <v>5413.49</v>
       </c>
       <c r="O45" t="n">
-        <v>15411.2</v>
+        <v>3608.99</v>
       </c>
       <c r="P45" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R45" t="n">
-        <v>68.67</v>
+        <v>111.3</v>
       </c>
       <c r="S45" t="n">
-        <v>561.04</v>
+        <v>81.06</v>
       </c>
       <c r="T45" t="n">
-        <v>22.31</v>
+        <v>43.41</v>
       </c>
       <c r="U45" t="n">
-        <v>336.63</v>
+        <v>48.64</v>
       </c>
       <c r="V45" t="n">
-        <v>224.42</v>
+        <v>32.42</v>
       </c>
       <c r="W45" t="n">
-        <v>19.36</v>
+        <v>24.91</v>
       </c>
       <c r="X45" t="n">
-        <v>12.5</v>
+        <v>11.41</v>
       </c>
       <c r="Y45" t="n">
-        <v>68.67</v>
+        <v>111.3</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.544</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-12-18 14:53:09</t>
+          <t>2026-12-16 13:48:06</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6901,7 +6501,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.548</t>
+          <t>Mouse session - Score: 0.530</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6911,7 +6511,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20261218_002</t>
+          <t>MOUSE_20261216_000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6924,66 +6524,1536 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>2026-12-16</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13:48:06</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>8187</v>
+      </c>
+      <c r="L46" t="n">
+        <v>8187</v>
+      </c>
+      <c r="M46" t="n">
+        <v>39092.82</v>
+      </c>
+      <c r="N46" t="n">
+        <v>23455.69</v>
+      </c>
+      <c r="O46" t="n">
+        <v>15637.13</v>
+      </c>
+      <c r="P46" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>228.48</v>
+      </c>
+      <c r="T46" t="n">
+        <v>28.66</v>
+      </c>
+      <c r="U46" t="n">
+        <v>137.09</v>
+      </c>
+      <c r="V46" t="n">
+        <v>91.39</v>
+      </c>
+      <c r="W46" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-12-16 14:15:16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.504</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MOUSE_20261216_001</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-12-16</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>14:15:16</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5922</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5922</v>
+      </c>
+      <c r="M47" t="n">
+        <v>17179.13</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10307.48</v>
+      </c>
+      <c r="O47" t="n">
+        <v>6871.65</v>
+      </c>
+      <c r="P47" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="S47" t="n">
+        <v>441.2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>48.67</v>
+      </c>
+      <c r="U47" t="n">
+        <v>264.72</v>
+      </c>
+      <c r="V47" t="n">
+        <v>176.48</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="X47" t="n">
+        <v>17.41</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-12-16 13:40:16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.572</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MOUSE_20261216_002</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-12-16</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>13:40:16</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>13190</v>
+      </c>
+      <c r="L48" t="n">
+        <v>13190</v>
+      </c>
+      <c r="M48" t="n">
+        <v>29403.39</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17642.04</v>
+      </c>
+      <c r="O48" t="n">
+        <v>11761.36</v>
+      </c>
+      <c r="P48" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>523.2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="U48" t="n">
+        <v>313.92</v>
+      </c>
+      <c r="V48" t="n">
+        <v>209.28</v>
+      </c>
+      <c r="W48" t="n">
+        <v>24.68</v>
+      </c>
+      <c r="X48" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-12-16 16:40:54</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.871</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MOUSE_20261216_003</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-12-16</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>16:40:54</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>14510</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14510</v>
+      </c>
+      <c r="M49" t="n">
+        <v>25810.06</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15486.04</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10324.02</v>
+      </c>
+      <c r="P49" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>29</v>
+      </c>
+      <c r="R49" t="n">
+        <v>86</v>
+      </c>
+      <c r="S49" t="n">
+        <v>300.12</v>
+      </c>
+      <c r="T49" t="n">
+        <v>35.13</v>
+      </c>
+      <c r="U49" t="n">
+        <v>180.07</v>
+      </c>
+      <c r="V49" t="n">
+        <v>120.05</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="X49" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-12-17 15:55:32</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.457</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MOUSE_20261217_000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-12-17</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15:55:32</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>26124</v>
+      </c>
+      <c r="L50" t="n">
+        <v>26124</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20073.81</v>
+      </c>
+      <c r="N50" t="n">
+        <v>12044.28</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8029.52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>16</v>
+      </c>
+      <c r="R50" t="n">
+        <v>93.09</v>
+      </c>
+      <c r="S50" t="n">
+        <v>215.64</v>
+      </c>
+      <c r="T50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>129.39</v>
+      </c>
+      <c r="V50" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="W50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X50" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>93.09</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-12-17 09:04:04</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.594</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MOUSE_20261217_001</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2026-12-17</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>09:04:04</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>13142</v>
+      </c>
+      <c r="L51" t="n">
+        <v>13142</v>
+      </c>
+      <c r="M51" t="n">
+        <v>6556</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3933.6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2622.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="S51" t="n">
+        <v>79.94</v>
+      </c>
+      <c r="T51" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="U51" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="V51" t="n">
+        <v>31.97</v>
+      </c>
+      <c r="W51" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="X51" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>82.01000000000001</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-12-17 10:46:39</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.581</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MOUSE_20261217_002</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-12-17</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10:46:39</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>8840</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8840</v>
+      </c>
+      <c r="M52" t="n">
+        <v>33156.77</v>
+      </c>
+      <c r="N52" t="n">
+        <v>19894.06</v>
+      </c>
+      <c r="O52" t="n">
+        <v>13262.71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>29</v>
+      </c>
+      <c r="R52" t="n">
+        <v>104.44</v>
+      </c>
+      <c r="S52" t="n">
+        <v>317.47</v>
+      </c>
+      <c r="T52" t="n">
+        <v>39.18</v>
+      </c>
+      <c r="U52" t="n">
+        <v>190.48</v>
+      </c>
+      <c r="V52" t="n">
+        <v>126.99</v>
+      </c>
+      <c r="W52" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="X52" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>104.44</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-12-17 14:52:15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.464</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MOUSE_20261217_003</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2026-12-17</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>14:52:15</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>19951</v>
+      </c>
+      <c r="L53" t="n">
+        <v>19951</v>
+      </c>
+      <c r="M53" t="n">
+        <v>28491.06</v>
+      </c>
+      <c r="N53" t="n">
+        <v>17094.63</v>
+      </c>
+      <c r="O53" t="n">
+        <v>11396.42</v>
+      </c>
+      <c r="P53" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>11</v>
+      </c>
+      <c r="R53" t="n">
+        <v>148.67</v>
+      </c>
+      <c r="S53" t="n">
+        <v>191.64</v>
+      </c>
+      <c r="T53" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="U53" t="n">
+        <v>114.98</v>
+      </c>
+      <c r="V53" t="n">
+        <v>76.66</v>
+      </c>
+      <c r="W53" t="n">
+        <v>26.94</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>148.67</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-12-18 11:45:47</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.627</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MOUSE_20261218_000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>2026-12-18</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>14:53:09</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>11:45:47</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>Mouse</t>
         </is>
       </c>
-      <c r="K46" t="n">
-        <v>7151</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7151</v>
-      </c>
-      <c r="M46" t="n">
-        <v>30289.14</v>
-      </c>
-      <c r="N46" t="n">
-        <v>18173.48</v>
-      </c>
-      <c r="O46" t="n">
-        <v>12115.65</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="K54" t="n">
+        <v>26787</v>
+      </c>
+      <c r="L54" t="n">
+        <v>26787</v>
+      </c>
+      <c r="M54" t="n">
+        <v>30279.6</v>
+      </c>
+      <c r="N54" t="n">
+        <v>18167.76</v>
+      </c>
+      <c r="O54" t="n">
+        <v>12111.84</v>
+      </c>
+      <c r="P54" t="n">
         <v>6</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>127.62</v>
+      </c>
+      <c r="S54" t="n">
+        <v>237.27</v>
+      </c>
+      <c r="T54" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="U54" t="n">
+        <v>142.36</v>
+      </c>
+      <c r="V54" t="n">
+        <v>94.91</v>
+      </c>
+      <c r="W54" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="X54" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>127.62</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-12-18 10:34:15</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.517</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MOUSE_20261218_001</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>10:34:15</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>24702</v>
+      </c>
+      <c r="L55" t="n">
+        <v>24702</v>
+      </c>
+      <c r="M55" t="n">
+        <v>12554.45</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7532.67</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5021.78</v>
+      </c>
+      <c r="P55" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>29</v>
+      </c>
+      <c r="R55" t="n">
+        <v>162.57</v>
+      </c>
+      <c r="S55" t="n">
+        <v>77.23</v>
+      </c>
+      <c r="T55" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="U55" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="V55" t="n">
+        <v>30.89</v>
+      </c>
+      <c r="W55" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="X55" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>162.57</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-12-18 10:39:11</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.924</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MOUSE_20261218_002</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10:39:11</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>29086</v>
+      </c>
+      <c r="L56" t="n">
+        <v>29086</v>
+      </c>
+      <c r="M56" t="n">
+        <v>33672.35</v>
+      </c>
+      <c r="N56" t="n">
+        <v>20203.41</v>
+      </c>
+      <c r="O56" t="n">
+        <v>13468.94</v>
+      </c>
+      <c r="P56" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>10</v>
+      </c>
+      <c r="R56" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="S56" t="n">
+        <v>399.94</v>
+      </c>
+      <c r="T56" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="U56" t="n">
+        <v>239.96</v>
+      </c>
+      <c r="V56" t="n">
+        <v>159.97</v>
+      </c>
+      <c r="W56" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="X56" t="n">
+        <v>27.71</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>84.19</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-12-18 10:47:46</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.559</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MOUSE_20261218_003</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2026-12-18</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10:47:46</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>10956</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10956</v>
+      </c>
+      <c r="M57" t="n">
+        <v>39954.31</v>
+      </c>
+      <c r="N57" t="n">
+        <v>23972.59</v>
+      </c>
+      <c r="O57" t="n">
+        <v>15981.72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q57" t="n">
         <v>18</v>
       </c>
-      <c r="R46" t="n">
-        <v>167.89</v>
-      </c>
-      <c r="S46" t="n">
-        <v>180.41</v>
-      </c>
-      <c r="T46" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="U46" t="n">
-        <v>108.25</v>
-      </c>
-      <c r="V46" t="n">
-        <v>72.16</v>
-      </c>
-      <c r="W46" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="X46" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>167.89</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0.548</v>
+      <c r="R57" t="n">
+        <v>150.16</v>
+      </c>
+      <c r="S57" t="n">
+        <v>266.07</v>
+      </c>
+      <c r="T57" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="U57" t="n">
+        <v>159.64</v>
+      </c>
+      <c r="V57" t="n">
+        <v>106.43</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="X57" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>150.16</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-12-21 16:47:33</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.524</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>MOUSE_20261221_000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2026-12-21</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>16:47:33</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>6689</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6689</v>
+      </c>
+      <c r="M58" t="n">
+        <v>28161.43</v>
+      </c>
+      <c r="N58" t="n">
+        <v>16896.86</v>
+      </c>
+      <c r="O58" t="n">
+        <v>11264.57</v>
+      </c>
+      <c r="P58" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="S58" t="n">
+        <v>432.58</v>
+      </c>
+      <c r="T58" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="U58" t="n">
+        <v>259.55</v>
+      </c>
+      <c r="V58" t="n">
+        <v>173.03</v>
+      </c>
+      <c r="W58" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="X58" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-12-21 16:21:23</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.472</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MOUSE_20261221_001</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2026-12-21</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>16:21:23</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>14559</v>
+      </c>
+      <c r="L59" t="n">
+        <v>14559</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8091.4</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4854.84</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3236.56</v>
+      </c>
+      <c r="P59" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>21</v>
+      </c>
+      <c r="R59" t="n">
+        <v>87.92</v>
+      </c>
+      <c r="S59" t="n">
+        <v>92.03</v>
+      </c>
+      <c r="T59" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="U59" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="V59" t="n">
+        <v>36.81</v>
+      </c>
+      <c r="W59" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="X59" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>87.92</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-12-21 12:50:29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.458</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MOUSE_20261221_002</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2026-12-21</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>12:50:29</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>22819</v>
+      </c>
+      <c r="L60" t="n">
+        <v>22819</v>
+      </c>
+      <c r="M60" t="n">
+        <v>27041.26</v>
+      </c>
+      <c r="N60" t="n">
+        <v>16224.76</v>
+      </c>
+      <c r="O60" t="n">
+        <v>10816.51</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>10</v>
+      </c>
+      <c r="R60" t="n">
+        <v>160.64</v>
+      </c>
+      <c r="S60" t="n">
+        <v>168.34</v>
+      </c>
+      <c r="T60" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="U60" t="n">
+        <v>101</v>
+      </c>
+      <c r="V60" t="n">
+        <v>67.33</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="X60" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>160.64</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-12-21 17:37:36</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.579</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EM002</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MOUSE_20261221_003</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2026-12-21</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>17:37:36</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>9013</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9013</v>
+      </c>
+      <c r="M61" t="n">
+        <v>6574.1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3944.46</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2629.64</v>
+      </c>
+      <c r="P61" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>10</v>
+      </c>
+      <c r="R61" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="S61" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="T61" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="U61" t="n">
+        <v>40.15</v>
+      </c>
+      <c r="V61" t="n">
+        <v>26.76</v>
+      </c>
+      <c r="W61" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="X61" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.579</v>
       </c>
     </row>
   </sheetData>
@@ -6997,7 +8067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7060,20 +8130,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-12-01 14:43:00</t>
+          <t>2026-12-01 09:18:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-12-01 17:08:56</t>
+          <t>2026-12-01 11:40:27</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8756</v>
+        <v>8547</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>02:25:00</t>
+          <t>02:22:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -7100,20 +8170,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-12-01 12:38:00</t>
+          <t>2026-12-01 12:59:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-12-01 14:46:36</t>
+          <t>2026-12-01 15:54:53</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7716</v>
+        <v>10553</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02:08:00</t>
+          <t>02:55:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -7140,20 +8210,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-12-02 11:10:00</t>
+          <t>2026-12-02 10:07:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-12-02 16:39:12</t>
+          <t>2026-12-02 14:42:16</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19752</v>
+        <v>16516</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>05:29:00</t>
+          <t>04:35:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -7180,20 +8250,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-12-03 08:13:00</t>
+          <t>2026-12-03 11:38:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-12-03 09:52:48</t>
+          <t>2026-12-03 14:28:10</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5988</v>
+        <v>10210</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01:39:00</t>
+          <t>02:50:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -7220,20 +8290,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-12-03 13:54:00</t>
+          <t>2026-12-03 11:44:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-12-03 16:18:26</t>
+          <t>2026-12-03 13:36:05</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8666</v>
+        <v>6725</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>02:24:00</t>
+          <t>01:52:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -7260,20 +8330,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-12-04 12:30:00</t>
+          <t>2026-12-04 13:21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-12-04 14:44:55</t>
+          <t>2026-12-04 16:38:16</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8095</v>
+        <v>11836</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:14:00</t>
+          <t>03:17:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -7290,7 +8360,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20261204_01</t>
+          <t>BROWSER_20261207_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7300,25 +8370,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-12-04 11:30:00</t>
+          <t>2026-12-07 12:33:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-12-04 14:16:41</t>
+          <t>2026-12-07 14:31:08</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10001</v>
+        <v>7088</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:46:00</t>
+          <t>01:58:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-12-04</t>
+          <t>2026-12-07</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7330,7 +8400,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20261207_00</t>
+          <t>BROWSER_20261207_01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7340,20 +8410,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-12-07 14:16:00</t>
+          <t>2026-12-07 13:06:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-12-07 16:15:56</t>
+          <t>2026-12-07 15:11:44</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7196</v>
+        <v>7544</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>01:59:00</t>
+          <t>02:05:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -7370,7 +8440,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20261207_01</t>
+          <t>BROWSER_20261208_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7380,25 +8450,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-12-07 15:58:00</t>
+          <t>2026-12-08 12:33:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-12-07 17:51:17</t>
+          <t>2026-12-08 14:20:51</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6797</v>
+        <v>6471</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01:53:00</t>
+          <t>01:47:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2026-12-07</t>
+          <t>2026-12-08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7410,7 +8480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20261208_00</t>
+          <t>BROWSER_20261208_01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7420,20 +8490,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-12-08 15:58:00</t>
+          <t>2026-12-08 08:40:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-12-08 19:33:26</t>
+          <t>2026-12-08 10:55:44</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12926</v>
+        <v>8144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>03:35:00</t>
+          <t>02:15:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7460,20 +8530,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-12-09 13:10:00</t>
+          <t>2026-12-09 12:56:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-12-09 15:27:00</t>
+          <t>2026-12-09 15:20:23</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8220</v>
+        <v>8663</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02:17:00</t>
+          <t>02:24:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7500,20 +8570,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-12-09 10:42:00</t>
+          <t>2026-12-09 15:17:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-12-09 12:56:23</t>
+          <t>2026-12-09 17:14:44</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8063</v>
+        <v>7064</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:14:00</t>
+          <t>01:57:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7540,20 +8610,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-12-10 13:13:00</t>
+          <t>2026-12-10 11:55:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-12-10 18:31:21</t>
+          <t>2026-12-10 17:41:06</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19101</v>
+        <v>20766</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>05:18:00</t>
+          <t>05:46:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7580,20 +8650,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-12-11 11:48:00</t>
+          <t>2026-12-11 13:27:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-12-11 14:23:52</t>
+          <t>2026-12-11 19:11:43</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>9352</v>
+        <v>20683</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02:35:00</t>
+          <t>05:44:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7610,7 +8680,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20261211_01</t>
+          <t>BROWSER_20261214_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -7620,25 +8690,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-12-11 13:48:00</t>
+          <t>2026-12-14 12:40:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-12-11 16:06:21</t>
+          <t>2026-12-14 17:41:45</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8301</v>
+        <v>18105</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02:18:00</t>
+          <t>05:01:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-12-11</t>
+          <t>2026-12-14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7650,7 +8720,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20261214_00</t>
+          <t>BROWSER_20261215_00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -7660,25 +8730,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-12-14 09:47:00</t>
+          <t>2026-12-15 15:34:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-12-14 15:11:10</t>
+          <t>2026-12-15 18:12:11</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19450</v>
+        <v>9491</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>05:24:00</t>
+          <t>02:38:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-12-14</t>
+          <t>2026-12-15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7690,7 +8760,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20261215_00</t>
+          <t>BROWSER_20261215_01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -7700,20 +8770,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-12-15 15:24:00</t>
+          <t>2026-12-15 12:37:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-12-15 20:47:27</t>
+          <t>2026-12-15 14:20:57</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19407</v>
+        <v>6237</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>05:23:00</t>
+          <t>01:43:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7740,20 +8810,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-12-16 15:03:00</t>
+          <t>2026-12-16 13:06:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-12-16 17:16:14</t>
+          <t>2026-12-16 16:07:28</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7994</v>
+        <v>10888</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02:13:00</t>
+          <t>03:01:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7770,7 +8840,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20261216_01</t>
+          <t>BROWSER_20261217_00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -7780,25 +8850,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-12-16 11:30:00</t>
+          <t>2026-12-17 08:48:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-12-16 13:11:03</t>
+          <t>2026-12-17 11:52:21</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6063</v>
+        <v>11061</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>01:41:00</t>
+          <t>03:04:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-12-16</t>
+          <t>2026-12-17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7810,7 +8880,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BROWSER_20261217_00</t>
+          <t>BROWSER_20261218_00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7820,25 +8890,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2026-12-17 08:21:00</t>
+          <t>2026-12-18 10:05:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2026-12-17 13:31:47</t>
+          <t>2026-12-18 12:59:23</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18647</v>
+        <v>10463</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>05:10:00</t>
+          <t>02:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-12-17</t>
+          <t>2026-12-18</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7850,7 +8920,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BROWSER_20261218_00</t>
+          <t>BROWSER_20261218_01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7860,20 +8930,20 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2026-12-18 15:55:00</t>
+          <t>2026-12-18 12:26:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2026-12-18 17:41:05</t>
+          <t>2026-12-18 14:48:41</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6365</v>
+        <v>8561</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>01:46:00</t>
+          <t>02:22:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7890,7 +8960,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BROWSER_20261218_01</t>
+          <t>BROWSER_20261221_00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7900,25 +8970,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2026-12-18 13:02:00</t>
+          <t>2026-12-21 08:59:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2026-12-18 15:05:38</t>
+          <t>2026-12-21 11:53:39</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7418</v>
+        <v>10479</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02:03:00</t>
+          <t>02:54:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-12-18</t>
+          <t>2026-12-21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7930,7 +9000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BROWSER_20261221_00</t>
+          <t>BROWSER_20261221_01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7940,16 +9010,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2026-12-21 09:47:00</t>
+          <t>2026-12-21 12:55:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2026-12-21 12:06:32</t>
+          <t>2026-12-21 15:14:18</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8372</v>
+        <v>8358</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7962,46 +9032,6 @@
         </is>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>BROWSER_20261221_01</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2026-12-21 11:23:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2026-12-21 13:58:16</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>9316</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>02:35:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2026-12-21</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
